--- a/src/log/log_201608040110_刘奇.xlsx
+++ b/src/log/log_201608040110_刘奇.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\刘奇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\迅雷下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B5AFD3F0-D160-46DD-B69D-67C2275FD8FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4253E39-8BC8-488B-A11D-7261479D1FD5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -142,15 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、注册github
-2、加入协作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -199,22 +190,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、创建实体类
-2、创建接口
-3、创建接口实现函数
-4、创建junit4测试类
+    <t>在实体类中添加更多数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功规范项目结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类实现出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功加入项目库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、创建实体
+2、创建接口实现函数
+3、创建junit4测试类
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、创建实体类
-2、创建接口
-3、创建接口实现函数
-4、创建junit4测试类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在实体类中添加更多数据</t>
+    <t xml:space="preserve">实现接口，成功测试junit4测试类 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员注册github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写需求分析文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写完毕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +269,42 @@
         <scheme val="minor"/>
       </rPr>
       <t>用Jdbc将实体类连接远程数据库
-3、创建可装载的jda仓库函数
-4、创立Base模块
-5、更新测试类</t>
-    </r>
+3、创立Base模块
+4、更新测试类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、在远程数据库建库
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用Jdbc将实体类连接远程数据库
+3、更新测试类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接库成功，更新成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,68 +322,32 @@
       </rPr>
       <t>创建服务端接口
 2、创建服务端接口实现类
-3、创建服务端接口测试类及相关配置文件
-4、创建服务器操作类，修改本地实体</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、在远程数据库建库
-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用Jdbc将实体类连接远程数据库
-3、创建可装载的jda仓库函数
-4、复制Base模块
-5、更新测试类</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规范项目结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功规范项目结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00-13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试类实现出现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接库成功</t>
+3、创建测试类及相关配置文件
+4、修改本地实体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建服务端接口
+2、创建服务端接口实现类
+3、创建服务端接口测试类及相关配置文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,10 +725,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="84.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,16 +736,16 @@
         <v>43229</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,16 +753,16 @@
         <v>43232</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,16 +770,16 @@
         <v>43244</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,13 +787,27 @@
         <v>43263</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
